--- a/4. Отдел ДУ/5. Испытания/Испытания 17.05.24/17.05.24.xlsx
+++ b/4. Отдел ДУ/5. Испытания/Испытания 17.05.24/17.05.24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yandex\YandexDisk\Ro_Tech\4. Отдел ДУ\5. Испытания\Испытания 17.05.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B686E6F9-9836-4838-813A-5BFE9C3856A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523CA982-4786-40CE-AA9B-80D05E6146B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{4A90B357-E18D-47C8-A2B0-BB7A7AB3DFB6}"/>
   </bookViews>
@@ -768,22 +768,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -792,24 +795,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -817,10 +804,23 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4164,8 +4164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4532534C-5E81-4286-803D-B0526739F9D5}">
   <dimension ref="B1:Q221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4178,18 +4178,18 @@
     </row>
     <row r="2" spans="2:14" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -4223,18 +4223,18 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
@@ -4290,10 +4290,10 @@
       <c r="F12" s="3">
         <v>103.25</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="23"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
@@ -4312,10 +4312,10 @@
       <c r="F14" s="3">
         <v>128</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="24"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
@@ -4325,10 +4325,10 @@
       <c r="F15" s="3">
         <v>135.75</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="20"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E16" s="2">
@@ -4345,10 +4345,10 @@
       <c r="F17" s="3">
         <v>145.75</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="25"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E18" s="2">
@@ -4393,10 +4393,10 @@
       <c r="F21" s="3">
         <v>119</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="21"/>
     </row>
     <row r="22" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E22" s="2">
@@ -4405,24 +4405,24 @@
       <c r="F22" s="3">
         <v>111</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="35"/>
+      <c r="I22" s="23"/>
     </row>
     <row r="27" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
     </row>
     <row r="28" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E28" s="2" t="s">
@@ -4481,10 +4481,10 @@
       <c r="F33" s="2">
         <v>90.75</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="23"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E34" s="2">
@@ -4501,10 +4501,10 @@
       <c r="F35" s="2">
         <v>112.25</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="H35" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I35" s="24"/>
+      <c r="I35" s="25"/>
     </row>
     <row r="36" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E36" s="2">
@@ -4513,10 +4513,10 @@
       <c r="F36" s="2">
         <v>120</v>
       </c>
-      <c r="H36" s="19" t="s">
+      <c r="H36" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="20"/>
+      <c r="I36" s="18"/>
     </row>
     <row r="37" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E37" s="2">
@@ -4533,10 +4533,10 @@
       <c r="F38" s="2">
         <v>131.75</v>
       </c>
-      <c r="H38" s="25" t="s">
+      <c r="H38" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="25"/>
+      <c r="I38" s="19"/>
     </row>
     <row r="39" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E39" s="2">
@@ -4581,10 +4581,10 @@
       <c r="F42" s="2">
         <v>128.5</v>
       </c>
-      <c r="H42" s="17" t="s">
+      <c r="H42" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I42" s="18"/>
+      <c r="I42" s="21"/>
     </row>
     <row r="43" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E43" s="2">
@@ -4593,10 +4593,10 @@
       <c r="F43" s="2">
         <v>122.25</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H43" s="17">
         <v>498</v>
       </c>
-      <c r="I43" s="20"/>
+      <c r="I43" s="18"/>
     </row>
     <row r="44" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E44" s="2">
@@ -4605,10 +4605,10 @@
       <c r="F44" s="2">
         <v>117.5</v>
       </c>
-      <c r="H44" s="21" t="s">
+      <c r="H44" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="21"/>
+      <c r="I44" s="26"/>
     </row>
     <row r="45" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E45" s="2">
@@ -4647,18 +4647,18 @@
       </c>
     </row>
     <row r="50" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
     </row>
     <row r="52" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E52" s="2" t="s">
@@ -4709,10 +4709,10 @@
       <c r="F56" s="2">
         <v>72.25</v>
       </c>
-      <c r="H56" s="23" t="s">
+      <c r="H56" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I56" s="23"/>
+      <c r="I56" s="24"/>
     </row>
     <row r="57" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E57" s="2">
@@ -4729,10 +4729,10 @@
       <c r="F58" s="2">
         <v>105.25</v>
       </c>
-      <c r="H58" s="17" t="s">
+      <c r="H58" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="24"/>
+      <c r="I58" s="25"/>
     </row>
     <row r="59" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E59" s="2">
@@ -4741,10 +4741,10 @@
       <c r="F59" s="2">
         <v>115.75</v>
       </c>
-      <c r="H59" s="19" t="s">
+      <c r="H59" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I59" s="20"/>
+      <c r="I59" s="18"/>
     </row>
     <row r="60" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E60" s="2">
@@ -4761,10 +4761,10 @@
       <c r="F61" s="2">
         <v>130.75</v>
       </c>
-      <c r="H61" s="25" t="s">
+      <c r="H61" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I61" s="25"/>
+      <c r="I61" s="19"/>
     </row>
     <row r="62" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E62" s="2">
@@ -4812,10 +4812,10 @@
       <c r="G65" t="s">
         <v>22</v>
       </c>
-      <c r="H65" s="17" t="s">
+      <c r="H65" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I65" s="18"/>
+      <c r="I65" s="21"/>
     </row>
     <row r="66" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E66" s="2">
@@ -4824,10 +4824,10 @@
       <c r="F66" s="2">
         <v>135.75</v>
       </c>
-      <c r="H66" s="19">
+      <c r="H66" s="17">
         <v>465</v>
       </c>
-      <c r="I66" s="20"/>
+      <c r="I66" s="18"/>
     </row>
     <row r="67" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E67" s="2">
@@ -4836,10 +4836,10 @@
       <c r="F67" s="2">
         <v>131.75</v>
       </c>
-      <c r="H67" s="21" t="s">
+      <c r="H67" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I67" s="21"/>
+      <c r="I67" s="26"/>
     </row>
     <row r="68" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E68" s="2">
@@ -4870,18 +4870,18 @@
       </c>
     </row>
     <row r="73" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E73" s="32" t="s">
+      <c r="E73" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="32"/>
-      <c r="N73" s="32"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27"/>
     </row>
     <row r="74" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
@@ -4934,18 +4934,18 @@
       </c>
     </row>
     <row r="85" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E85" s="30" t="s">
+      <c r="E85" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="30"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="30"/>
-      <c r="N85" s="30"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="29"/>
+      <c r="N85" s="29"/>
     </row>
     <row r="86" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E86" t="s">
@@ -4978,18 +4978,18 @@
       </c>
     </row>
     <row r="93" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E93" s="30" t="s">
+      <c r="E93" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="30"/>
-      <c r="K93" s="30"/>
-      <c r="L93" s="30"/>
-      <c r="M93" s="30"/>
-      <c r="N93" s="30"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="29"/>
+      <c r="M93" s="29"/>
+      <c r="N93" s="29"/>
     </row>
     <row r="94" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E94" t="s">
@@ -5017,18 +5017,18 @@
       </c>
     </row>
     <row r="100" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E100" s="30" t="s">
+      <c r="E100" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F100" s="30"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="30"/>
-      <c r="J100" s="30"/>
-      <c r="K100" s="30"/>
-      <c r="L100" s="30"/>
-      <c r="M100" s="30"/>
-      <c r="N100" s="30"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="29"/>
+      <c r="M100" s="29"/>
+      <c r="N100" s="29"/>
     </row>
     <row r="102" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E102" s="9" t="s">
@@ -5095,17 +5095,17 @@
       </c>
     </row>
     <row r="113" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E113" s="31" t="s">
+      <c r="E113" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F113" s="31"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="31"/>
-      <c r="J113" s="31"/>
-      <c r="K113" s="31"/>
-      <c r="L113" s="31"/>
-      <c r="M113" s="31"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="34"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="34"/>
+      <c r="K113" s="34"/>
+      <c r="L113" s="34"/>
+      <c r="M113" s="34"/>
     </row>
     <row r="114" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E114" t="s">
@@ -5113,18 +5113,18 @@
       </c>
     </row>
     <row r="116" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E116" s="29" t="s">
+      <c r="E116" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F116" s="29"/>
-      <c r="G116" s="29"/>
-      <c r="H116" s="29"/>
-      <c r="I116" s="29"/>
-      <c r="J116" s="29"/>
-      <c r="K116" s="29"/>
-      <c r="L116" s="29"/>
-      <c r="M116" s="29"/>
-      <c r="N116" s="29"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="33"/>
+      <c r="I116" s="33"/>
+      <c r="J116" s="33"/>
+      <c r="K116" s="33"/>
+      <c r="L116" s="33"/>
+      <c r="M116" s="33"/>
+      <c r="N116" s="33"/>
     </row>
     <row r="117" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E117" t="s">
@@ -5142,33 +5142,33 @@
       </c>
     </row>
     <row r="123" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E123" s="28" t="s">
+      <c r="E123" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="F123" s="28"/>
-      <c r="G123" s="28"/>
-      <c r="H123" s="28"/>
-      <c r="I123" s="28"/>
-      <c r="J123" s="28"/>
-      <c r="K123" s="28"/>
-      <c r="L123" s="28"/>
-      <c r="M123" s="28"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="30"/>
+      <c r="K123" s="30"/>
+      <c r="L123" s="30"/>
+      <c r="M123" s="30"/>
     </row>
     <row r="126" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E126" s="17" t="s">
+      <c r="E126" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F126" s="26"/>
-      <c r="G126" s="26"/>
-      <c r="H126" s="26"/>
-      <c r="I126" s="26"/>
-      <c r="J126" s="26"/>
-      <c r="K126" s="26"/>
-      <c r="L126" s="26"/>
-      <c r="M126" s="26"/>
-      <c r="N126" s="26"/>
-      <c r="O126" s="26"/>
-      <c r="P126" s="18"/>
+      <c r="F126" s="32"/>
+      <c r="G126" s="32"/>
+      <c r="H126" s="32"/>
+      <c r="I126" s="32"/>
+      <c r="J126" s="32"/>
+      <c r="K126" s="32"/>
+      <c r="L126" s="32"/>
+      <c r="M126" s="32"/>
+      <c r="N126" s="32"/>
+      <c r="O126" s="32"/>
+      <c r="P126" s="21"/>
     </row>
     <row r="127" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E127" s="13"/>
@@ -5219,18 +5219,18 @@
         <v>77</v>
       </c>
       <c r="F130" s="2"/>
-      <c r="G130" s="27" t="s">
+      <c r="G130" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="H130" s="27"/>
-      <c r="I130" s="27"/>
-      <c r="J130" s="27"/>
-      <c r="K130" s="27"/>
-      <c r="L130" s="27"/>
-      <c r="M130" s="27"/>
-      <c r="N130" s="27"/>
-      <c r="O130" s="27"/>
-      <c r="P130" s="27"/>
+      <c r="H130" s="31"/>
+      <c r="I130" s="31"/>
+      <c r="J130" s="31"/>
+      <c r="K130" s="31"/>
+      <c r="L130" s="31"/>
+      <c r="M130" s="31"/>
+      <c r="N130" s="31"/>
+      <c r="O130" s="31"/>
+      <c r="P130" s="31"/>
     </row>
     <row r="131" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="132" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5245,18 +5245,18 @@
       </c>
       <c r="F134" s="2"/>
       <c r="I134" s="13"/>
-      <c r="L134" s="22" t="s">
+      <c r="L134" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="M134" s="22"/>
+      <c r="M134" s="35"/>
     </row>
     <row r="135" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
     <row r="136" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E136" s="23"/>
-      <c r="F136" s="23"/>
+      <c r="E136" s="24"/>
+      <c r="F136" s="24"/>
       <c r="I136" t="s">
         <v>81</v>
       </c>
@@ -5264,24 +5264,24 @@
     </row>
     <row r="137" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="138" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E138" s="17" t="s">
+      <c r="E138" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F138" s="24"/>
+      <c r="F138" s="25"/>
       <c r="I138" t="s">
         <v>82</v>
       </c>
       <c r="O138" s="11"/>
     </row>
     <row r="139" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E139" s="19"/>
-      <c r="F139" s="20"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="18"/>
     </row>
     <row r="141" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E141" s="25" t="s">
+      <c r="E141" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F141" s="25"/>
+      <c r="F141" s="19"/>
     </row>
     <row r="142" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E142" s="2" t="s">
@@ -5296,36 +5296,36 @@
       <c r="F143" s="8"/>
     </row>
     <row r="145" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E145" s="17" t="s">
+      <c r="E145" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F145" s="18"/>
+      <c r="F145" s="21"/>
     </row>
     <row r="146" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E146" s="19"/>
-      <c r="F146" s="20"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="18"/>
     </row>
     <row r="147" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E147" s="21" t="s">
+      <c r="E147" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F147" s="21"/>
+      <c r="F147" s="26"/>
     </row>
     <row r="152" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E152" s="17" t="s">
+      <c r="E152" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F152" s="26"/>
-      <c r="G152" s="26"/>
-      <c r="H152" s="26"/>
-      <c r="I152" s="26"/>
-      <c r="J152" s="26"/>
-      <c r="K152" s="26"/>
-      <c r="L152" s="26"/>
-      <c r="M152" s="26"/>
-      <c r="N152" s="26"/>
-      <c r="O152" s="26"/>
-      <c r="P152" s="18"/>
+      <c r="F152" s="32"/>
+      <c r="G152" s="32"/>
+      <c r="H152" s="32"/>
+      <c r="I152" s="32"/>
+      <c r="J152" s="32"/>
+      <c r="K152" s="32"/>
+      <c r="L152" s="32"/>
+      <c r="M152" s="32"/>
+      <c r="N152" s="32"/>
+      <c r="O152" s="32"/>
+      <c r="P152" s="21"/>
     </row>
     <row r="153" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E153" s="13"/>
@@ -5376,18 +5376,18 @@
         <v>77</v>
       </c>
       <c r="F156" s="2"/>
-      <c r="G156" s="27" t="s">
+      <c r="G156" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="H156" s="27"/>
-      <c r="I156" s="27"/>
-      <c r="J156" s="27"/>
-      <c r="K156" s="27"/>
-      <c r="L156" s="27"/>
-      <c r="M156" s="27"/>
-      <c r="N156" s="27"/>
-      <c r="O156" s="27"/>
-      <c r="P156" s="27"/>
+      <c r="H156" s="31"/>
+      <c r="I156" s="31"/>
+      <c r="J156" s="31"/>
+      <c r="K156" s="31"/>
+      <c r="L156" s="31"/>
+      <c r="M156" s="31"/>
+      <c r="N156" s="31"/>
+      <c r="O156" s="31"/>
+      <c r="P156" s="31"/>
     </row>
     <row r="157" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="158" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5402,18 +5402,18 @@
       </c>
       <c r="F160" s="2"/>
       <c r="I160" s="13"/>
-      <c r="L160" s="22" t="s">
+      <c r="L160" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="M160" s="22"/>
+      <c r="M160" s="35"/>
     </row>
     <row r="161" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
     </row>
     <row r="162" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E162" s="23"/>
-      <c r="F162" s="23"/>
+      <c r="E162" s="24"/>
+      <c r="F162" s="24"/>
       <c r="I162" t="s">
         <v>87</v>
       </c>
@@ -5421,18 +5421,18 @@
     </row>
     <row r="163" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="164" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E164" s="17" t="s">
+      <c r="E164" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F164" s="24"/>
+      <c r="F164" s="25"/>
       <c r="I164" t="s">
         <v>88</v>
       </c>
       <c r="O164" s="11"/>
     </row>
     <row r="165" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E165" s="19"/>
-      <c r="F165" s="20"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="18"/>
     </row>
     <row r="166" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I166" t="s">
@@ -5441,10 +5441,10 @@
       <c r="O166" s="11"/>
     </row>
     <row r="167" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E167" s="25" t="s">
+      <c r="E167" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F167" s="25"/>
+      <c r="F167" s="19"/>
     </row>
     <row r="168" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E168" s="2" t="s">
@@ -5465,36 +5465,36 @@
       <c r="F169" s="8"/>
     </row>
     <row r="171" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E171" s="17" t="s">
+      <c r="E171" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F171" s="18"/>
+      <c r="F171" s="21"/>
     </row>
     <row r="172" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E172" s="19"/>
-      <c r="F172" s="20"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="18"/>
     </row>
     <row r="173" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E173" s="21" t="s">
+      <c r="E173" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F173" s="21"/>
+      <c r="F173" s="26"/>
     </row>
     <row r="176" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E176" s="17" t="s">
+      <c r="E176" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="F176" s="26"/>
-      <c r="G176" s="26"/>
-      <c r="H176" s="26"/>
-      <c r="I176" s="26"/>
-      <c r="J176" s="26"/>
-      <c r="K176" s="26"/>
-      <c r="L176" s="26"/>
-      <c r="M176" s="26"/>
-      <c r="N176" s="26"/>
-      <c r="O176" s="26"/>
-      <c r="P176" s="18"/>
+      <c r="F176" s="32"/>
+      <c r="G176" s="32"/>
+      <c r="H176" s="32"/>
+      <c r="I176" s="32"/>
+      <c r="J176" s="32"/>
+      <c r="K176" s="32"/>
+      <c r="L176" s="32"/>
+      <c r="M176" s="32"/>
+      <c r="N176" s="32"/>
+      <c r="O176" s="32"/>
+      <c r="P176" s="21"/>
     </row>
     <row r="177" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E177" s="13"/>
@@ -5545,18 +5545,18 @@
         <v>77</v>
       </c>
       <c r="F180" s="2"/>
-      <c r="G180" s="27" t="s">
+      <c r="G180" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="H180" s="27"/>
-      <c r="I180" s="27"/>
-      <c r="J180" s="27"/>
-      <c r="K180" s="27"/>
-      <c r="L180" s="27"/>
-      <c r="M180" s="27"/>
-      <c r="N180" s="27"/>
-      <c r="O180" s="27"/>
-      <c r="P180" s="27"/>
+      <c r="H180" s="31"/>
+      <c r="I180" s="31"/>
+      <c r="J180" s="31"/>
+      <c r="K180" s="31"/>
+      <c r="L180" s="31"/>
+      <c r="M180" s="31"/>
+      <c r="N180" s="31"/>
+      <c r="O180" s="31"/>
+      <c r="P180" s="31"/>
     </row>
     <row r="181" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="182" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5571,18 +5571,18 @@
       </c>
       <c r="F184" s="2"/>
       <c r="I184" s="13"/>
-      <c r="L184" s="22" t="s">
+      <c r="L184" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="M184" s="22"/>
+      <c r="M184" s="35"/>
     </row>
     <row r="185" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
     </row>
     <row r="186" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E186" s="23"/>
-      <c r="F186" s="23"/>
+      <c r="E186" s="24"/>
+      <c r="F186" s="24"/>
       <c r="I186" t="s">
         <v>93</v>
       </c>
@@ -5590,27 +5590,27 @@
     </row>
     <row r="187" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="188" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E188" s="17" t="s">
+      <c r="E188" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F188" s="24"/>
+      <c r="F188" s="25"/>
       <c r="I188" t="s">
         <v>94</v>
       </c>
       <c r="O188" s="11"/>
     </row>
     <row r="189" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E189" s="19"/>
-      <c r="F189" s="20"/>
+      <c r="E189" s="17"/>
+      <c r="F189" s="18"/>
     </row>
     <row r="190" spans="5:17" x14ac:dyDescent="0.3">
       <c r="O190" s="13"/>
     </row>
     <row r="191" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E191" s="25" t="s">
+      <c r="E191" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F191" s="25"/>
+      <c r="F191" s="19"/>
     </row>
     <row r="192" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E192" s="2" t="s">
@@ -5628,36 +5628,36 @@
       <c r="F193" s="8"/>
     </row>
     <row r="195" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E195" s="17" t="s">
+      <c r="E195" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F195" s="18"/>
+      <c r="F195" s="21"/>
     </row>
     <row r="196" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E196" s="19"/>
-      <c r="F196" s="20"/>
+      <c r="E196" s="17"/>
+      <c r="F196" s="18"/>
     </row>
     <row r="197" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E197" s="21" t="s">
+      <c r="E197" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F197" s="21"/>
+      <c r="F197" s="26"/>
     </row>
     <row r="200" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E200" s="17" t="s">
+      <c r="E200" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F200" s="26"/>
-      <c r="G200" s="26"/>
-      <c r="H200" s="26"/>
-      <c r="I200" s="26"/>
-      <c r="J200" s="26"/>
-      <c r="K200" s="26"/>
-      <c r="L200" s="26"/>
-      <c r="M200" s="26"/>
-      <c r="N200" s="26"/>
-      <c r="O200" s="26"/>
-      <c r="P200" s="18"/>
+      <c r="F200" s="32"/>
+      <c r="G200" s="32"/>
+      <c r="H200" s="32"/>
+      <c r="I200" s="32"/>
+      <c r="J200" s="32"/>
+      <c r="K200" s="32"/>
+      <c r="L200" s="32"/>
+      <c r="M200" s="32"/>
+      <c r="N200" s="32"/>
+      <c r="O200" s="32"/>
+      <c r="P200" s="21"/>
     </row>
     <row r="201" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E201" s="13"/>
@@ -5708,18 +5708,18 @@
         <v>77</v>
       </c>
       <c r="F204" s="2"/>
-      <c r="G204" s="27" t="s">
+      <c r="G204" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="H204" s="27"/>
-      <c r="I204" s="27"/>
-      <c r="J204" s="27"/>
-      <c r="K204" s="27"/>
-      <c r="L204" s="27"/>
-      <c r="M204" s="27"/>
-      <c r="N204" s="27"/>
-      <c r="O204" s="27"/>
-      <c r="P204" s="27"/>
+      <c r="H204" s="31"/>
+      <c r="I204" s="31"/>
+      <c r="J204" s="31"/>
+      <c r="K204" s="31"/>
+      <c r="L204" s="31"/>
+      <c r="M204" s="31"/>
+      <c r="N204" s="31"/>
+      <c r="O204" s="31"/>
+      <c r="P204" s="31"/>
     </row>
     <row r="205" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="206" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5737,18 +5737,18 @@
         <v>97</v>
       </c>
       <c r="I208" s="13"/>
-      <c r="L208" s="22" t="s">
+      <c r="L208" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="M208" s="22"/>
+      <c r="M208" s="35"/>
     </row>
     <row r="209" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
     </row>
     <row r="210" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E210" s="23"/>
-      <c r="F210" s="23"/>
+      <c r="E210" s="24"/>
+      <c r="F210" s="24"/>
       <c r="G210">
         <v>5.3</v>
       </c>
@@ -5758,15 +5758,15 @@
       <c r="O210" s="11"/>
     </row>
     <row r="212" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E212" s="17" t="s">
+      <c r="E212" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F212" s="24"/>
+      <c r="F212" s="25"/>
       <c r="O212" s="13"/>
     </row>
     <row r="213" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E213" s="19"/>
-      <c r="F213" s="20"/>
+      <c r="E213" s="17"/>
+      <c r="F213" s="18"/>
       <c r="G213">
         <v>4.2999999999999997E-2</v>
       </c>
@@ -5775,10 +5775,10 @@
       <c r="O214" s="13"/>
     </row>
     <row r="215" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E215" s="25" t="s">
+      <c r="E215" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F215" s="25"/>
+      <c r="F215" s="19"/>
     </row>
     <row r="216" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E216" s="2" t="s">
@@ -5798,35 +5798,68 @@
       </c>
     </row>
     <row r="219" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E219" s="17" t="s">
+      <c r="E219" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F219" s="18"/>
+      <c r="F219" s="21"/>
     </row>
     <row r="220" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E220" s="19"/>
-      <c r="F220" s="20"/>
+      <c r="E220" s="17"/>
+      <c r="F220" s="18"/>
       <c r="G220">
         <v>497</v>
       </c>
     </row>
     <row r="221" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E221" s="21"/>
-      <c r="F221" s="21"/>
+      <c r="E221" s="26"/>
+      <c r="F221" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="E219:F219"/>
+    <mergeCell ref="E220:F220"/>
+    <mergeCell ref="E221:F221"/>
+    <mergeCell ref="L208:M208"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="E213:F213"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="E195:F195"/>
+    <mergeCell ref="E196:F196"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="E200:P200"/>
+    <mergeCell ref="G204:P204"/>
+    <mergeCell ref="L184:M184"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="E188:F188"/>
+    <mergeCell ref="E189:F189"/>
+    <mergeCell ref="E191:F191"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="E176:P176"/>
+    <mergeCell ref="G180:P180"/>
+    <mergeCell ref="L160:M160"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="E152:P152"/>
+    <mergeCell ref="G156:P156"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="E123:M123"/>
+    <mergeCell ref="G130:P130"/>
+    <mergeCell ref="E126:P126"/>
+    <mergeCell ref="E116:N116"/>
+    <mergeCell ref="E100:N100"/>
+    <mergeCell ref="E113:M113"/>
     <mergeCell ref="H67:I67"/>
     <mergeCell ref="E73:N73"/>
     <mergeCell ref="E2:N2"/>
@@ -5843,50 +5876,17 @@
     <mergeCell ref="E27:N27"/>
     <mergeCell ref="E50:N50"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E123:M123"/>
-    <mergeCell ref="G130:P130"/>
-    <mergeCell ref="E126:P126"/>
-    <mergeCell ref="E116:N116"/>
-    <mergeCell ref="E100:N100"/>
-    <mergeCell ref="E113:M113"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="L134:M134"/>
-    <mergeCell ref="E152:P152"/>
-    <mergeCell ref="G156:P156"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="L160:M160"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="E176:P176"/>
-    <mergeCell ref="G180:P180"/>
-    <mergeCell ref="L184:M184"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="E188:F188"/>
-    <mergeCell ref="E189:F189"/>
-    <mergeCell ref="E191:F191"/>
-    <mergeCell ref="E195:F195"/>
-    <mergeCell ref="E196:F196"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="E200:P200"/>
-    <mergeCell ref="G204:P204"/>
-    <mergeCell ref="E219:F219"/>
-    <mergeCell ref="E220:F220"/>
-    <mergeCell ref="E221:F221"/>
-    <mergeCell ref="L208:M208"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="E213:F213"/>
-    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H35:I35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
